--- a/reciboALlenar.xlsx
+++ b/reciboALlenar.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet name="4,5" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="4,5" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'4,5'!$A1:$G44</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -151,44 +151,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -382,26 +382,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,6 +389,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,6 +403,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -429,6 +414,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -438,9 +426,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,11 +744,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="11.42578125" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -760,11 +757,10 @@
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="17.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -826,7 +822,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -841,7 +837,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -862,7 +858,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -877,202 +873,189 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="16">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="22">
         <v>28052</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="21">
         <f>E10*D10</f>
-        <v>28052</v>
-      </c>
-      <c r="G10" s="16"/>
+      </c>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="16">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="21">
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="22">
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="21">
         <f>E11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="18">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26">
         <v>0.15</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="22">
         <f>E10+E11</f>
-        <v>28052</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16">
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
         <f>E12*D12</f>
-        <v>4207.8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="19">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27">
+        <v>0.045</v>
+      </c>
+      <c r="E13" s="22">
         <f>E12</f>
-        <v>28052</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16">
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21">
         <f t="shared" ref="G13:G14" si="0">E13*D13</f>
-        <v>1262.3399999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="20">
-        <v>1.25E-3</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="28">
+        <v>0.00125</v>
+      </c>
+      <c r="E14" s="22">
         <f>E13</f>
-        <v>28052</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v>35.064999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32">
         <f>SUM(G12:G14)-G16</f>
-        <v>0.20499999999992724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="22">
         <f>SUM(F10:F15)</f>
-        <v>28052</v>
-      </c>
-      <c r="G16" s="23">
+      </c>
+      <c r="G16" s="34">
         <f>ROUNDDOWN(SUM(G12:G14),0)</f>
-        <v>5505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="36">
         <f>F16-G16</f>
-        <v>22547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
       <c r="B19" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
       <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="str">
+      <c r="G21" s="41"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <f>A1</f>
-        <v>Mafty S.A.</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1083,23 +1066,21 @@
       </c>
       <c r="G23" s="5">
         <f>G1</f>
-        <v>44438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="7">
         <f>E2</f>
-        <v>08/2021</v>
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1110,13 +1091,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1">
         <f>B4</f>
-        <v>0</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>7</v>
@@ -1124,74 +1104,65 @@
       <c r="E26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="F26" s="1">
         <f>F4</f>
-        <v>5.168.143-7</v>
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1">
         <f>B5</f>
-        <v>0</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="8">
         <f>G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1">
         <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="12" t="str">
+      </c>
+      <c r="C28" s="12">
         <f>C6</f>
-        <v>Carpeta Bco. Seguros:</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="1">
         <f>F6</f>
-        <v>77777</v>
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="1">
         <f>B7</f>
-        <v>7777</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1">
         <f>D7</f>
-        <v>6</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="1">
         <f>F7</f>
-        <v>9</v>
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -1205,221 +1176,207 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="15" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="16">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21">
         <v>1</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="22">
         <f>E10</f>
-        <v>28052</v>
-      </c>
-      <c r="F32" s="16">
+      </c>
+      <c r="F32" s="21">
         <f>E32*D32</f>
-        <v>28052</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      </c>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="16">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="21">
         <v>0</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="22">
         <v>0</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="21">
         <f>E33*D33</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      </c>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="18">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26">
         <v>0.15</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="22">
         <f>E32+E33</f>
-        <v>28052</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16">
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21">
         <f>E34*D34</f>
-        <v>4207.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="19">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27">
         <f>D13</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E35" s="17">
+      </c>
+      <c r="E35" s="22">
         <f>E34</f>
-        <v>28052</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16">
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21">
         <f t="shared" ref="G35:G36" si="1">E35*D35</f>
-        <v>1262.3399999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="20">
-        <v>1.25E-3</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="28">
+        <v>0.00125</v>
+      </c>
+      <c r="E36" s="22">
         <f>E35</f>
-        <v>28052</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16">
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21">
         <f t="shared" si="1"/>
-        <v>35.064999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="39" t="s">
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32">
         <f>SUM(G34:G36)-G38</f>
-        <v>0.20499999999992724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="22">
         <f>SUM(F32:F37)</f>
-        <v>28052</v>
-      </c>
-      <c r="G38" s="23">
+      </c>
+      <c r="G38" s="34">
         <f>ROUNDDOWN(SUM(G34:G36),0)</f>
-        <v>5505</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="36">
         <f>F38-G38</f>
-        <v>22547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="12" t="s">
         <v>39</v>
       </c>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
       <c r="B41" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
       <c r="B42" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="29"/>
+      <c r="G43" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/reciboALlenar.xlsx
+++ b/reciboALlenar.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="4,5" state="visible" r:id="rId4"/>
+    <sheet name="4,5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'4,5'!$A1:$G44</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -151,44 +151,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -382,6 +382,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,9 +409,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,8 +420,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -414,9 +429,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -426,18 +438,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,11 +747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="11.42578125" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -757,10 +760,11 @@
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -822,7 +826,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -837,7 +841,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -858,7 +862,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -873,189 +877,202 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="17">
         <v>28052</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <f>E10*D10</f>
-      </c>
-      <c r="G10" s="21"/>
+        <v>28052</v>
+      </c>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="21">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="16">
         <v>0</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <f>E11*D11</f>
-      </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="18">
         <v>0.15</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="17">
         <f>E10+E11</f>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <f>E12*D12</f>
+        <v>4207.8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27">
-        <v>0.045</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="19">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E13" s="17">
         <f>E12</f>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <f t="shared" ref="G13:G14" si="0">E13*D13</f>
+        <v>1262.3399999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="28">
-        <v>0.00125</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="20">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E14" s="17">
         <f>E13</f>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
+        <v>35.064999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21">
         <f>SUM(G12:G14)-G16</f>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.20499999999992724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="17">
         <f>SUM(F10:F15)</f>
-      </c>
-      <c r="G16" s="34">
+        <v>28052</v>
+      </c>
+      <c r="G16" s="23">
         <f>ROUNDDOWN(SUM(G12:G14),0)</f>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="25">
         <f>F16-G16</f>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+        <v>22547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="G21" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="str">
         <f>A1</f>
+        <v>Mafty S.A.</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1066,21 +1083,23 @@
       </c>
       <c r="G23" s="5">
         <f>G1</f>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="7" t="str">
         <f>E2</f>
+        <v>08/2021</v>
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1091,12 +1110,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1">
         <f>B4</f>
+        <v>0</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>7</v>
@@ -1104,65 +1124,74 @@
       <c r="E26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="str">
         <f>F4</f>
+        <v>5.168.143-7</v>
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1">
         <f>B5</f>
+        <v>0</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="8">
         <f>G5</f>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1">
         <f>B6</f>
-      </c>
-      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12" t="str">
         <f>C6</f>
+        <v>Carpeta Bco. Seguros:</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="1">
         <f>F6</f>
+        <v>77777</v>
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="1">
         <f>B7</f>
+        <v>7777</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1">
         <f>D7</f>
+        <v>6</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="1">
         <f>F7</f>
+        <v>9</v>
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -1176,207 +1205,221 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21">
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="16">
         <v>1</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="17">
         <f>E10</f>
-      </c>
-      <c r="F32" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F32" s="16">
         <f>E32*D32</f>
-      </c>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+        <v>28052</v>
+      </c>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="21">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="16">
         <v>0</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="17">
         <v>0</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="16">
         <f>E33*D33</f>
-      </c>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="18">
         <v>0.15</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="17">
         <f>E32+E33</f>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
         <f>E34*D34</f>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+        <v>4207.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27">
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="19">
         <f>D13</f>
-      </c>
-      <c r="E35" s="22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E35" s="17">
         <f>E34</f>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16">
         <f t="shared" ref="G35:G36" si="1">E35*D35</f>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+        <v>1262.3399999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="28">
-        <v>0.00125</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="20">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E36" s="17">
         <f>E35</f>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16">
         <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+        <v>35.064999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21">
         <f>SUM(G34:G36)-G38</f>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.20499999999992724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="17">
         <f>SUM(F32:F37)</f>
-      </c>
-      <c r="G38" s="34">
+        <v>28052</v>
+      </c>
+      <c r="G38" s="23">
         <f>ROUNDDOWN(SUM(G34:G36),0)</f>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="25">
         <f>F38-G38</f>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+        <v>22547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="12" t="s">
         <v>39</v>
       </c>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
       <c r="B41" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
       <c r="B42" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/reciboALlenar.xlsx
+++ b/reciboALlenar.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F573DFED-1C51-4F66-8CE1-04A86B364891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="9285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="4,5" state="visible" r:id="rId4"/>
+    <sheet name="4,5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'4,5'!$A1:$G44</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,9 +150,6 @@
     <t>Firma:</t>
   </si>
   <si>
-    <t>F:</t>
-  </si>
-  <si>
     <t>Recibí confrome el importe neto de esta liquidación y una copia de la misma.</t>
   </si>
   <si>
@@ -146,49 +157,52 @@
   </si>
   <si>
     <t>correspondientes al mes anterior.</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -382,6 +396,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,9 +444,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,41 +455,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,14 +759,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="11.42578125" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -757,10 +775,11 @@
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,7 +794,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -787,7 +806,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -798,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -813,7 +832,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -822,7 +841,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -837,7 +856,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -858,7 +877,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -872,190 +891,206 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="17">
         <v>28052</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <f>E10*D10</f>
-      </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+        <v>28052</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="21">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="16">
         <v>0</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <f>E11*D11</f>
-      </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="18">
         <v>0.15</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="17">
         <f>E10+E11</f>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <f>E12*D12</f>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+        <v>4207.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27">
-        <v>0.045</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="19">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E13" s="17">
         <f>E12</f>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <f t="shared" ref="G13:G14" si="0">E13*D13</f>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+        <v>1262.3399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="28">
-        <v>0.00125</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="20">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E14" s="17">
         <f>E13</f>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+        <v>35.064999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21">
         <f>SUM(G12:G14)-G16</f>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.20499999999992724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="17">
         <f>SUM(F10:F15)</f>
-      </c>
-      <c r="G16" s="34">
+        <v>28052</v>
+      </c>
+      <c r="G16" s="23">
         <f>ROUNDDOWN(SUM(G12:G14),0)</f>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="25">
         <f>F16-G16</f>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+        <v>22547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="43">
+        <v>44438</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="12" t="s">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="12" t="s">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="40" t="s">
-        <v>42</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="G21" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="str">
         <f>A1</f>
+        <v>Mafty S.A.</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1066,21 +1101,23 @@
       </c>
       <c r="G23" s="5">
         <f>G1</f>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="7" t="str">
         <f>E2</f>
+        <v>08/2021</v>
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1091,12 +1128,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1">
         <f>B4</f>
+        <v>0</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>7</v>
@@ -1104,65 +1142,74 @@
       <c r="E26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="str">
         <f>F4</f>
+        <v>5.168.143-7</v>
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1">
         <f>B5</f>
+        <v>0</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="8">
         <f>G5</f>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1">
         <f>B6</f>
-      </c>
-      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12" t="str">
         <f>C6</f>
+        <v>Carpeta Bco. Seguros:</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="1">
         <f>F6</f>
+        <v>77777</v>
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="1">
         <f>B7</f>
+        <v>7777</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1">
         <f>D7</f>
+        <v>6</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="1">
         <f>F7</f>
+        <v>9</v>
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -1176,186 +1223,204 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21">
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="16">
         <v>1</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="17">
         <f>E10</f>
-      </c>
-      <c r="F32" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F32" s="16">
         <f>E32*D32</f>
-      </c>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+        <v>28052</v>
+      </c>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="21">
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="16">
         <v>0</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="17">
         <v>0</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="16">
         <f>E33*D33</f>
-      </c>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26">
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="18">
         <v>0.15</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="17">
         <f>E32+E33</f>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
         <f>E34*D34</f>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+        <v>4207.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27">
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="19">
         <f>D13</f>
-      </c>
-      <c r="E35" s="22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E35" s="17">
         <f>E34</f>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16">
         <f t="shared" ref="G35:G36" si="1">E35*D35</f>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+        <v>1262.3399999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="28">
-        <v>0.00125</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="20">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E36" s="17">
         <f>E35</f>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21">
+        <v>28052</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16">
         <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+        <v>35.064999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32">
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21">
         <f>SUM(G34:G36)-G38</f>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.20499999999992724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="17">
         <f>SUM(F32:F37)</f>
-      </c>
-      <c r="G38" s="34">
+        <v>28052</v>
+      </c>
+      <c r="G38" s="23">
         <f>ROUNDDOWN(SUM(G34:G36),0)</f>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="25">
         <f>F38-G38</f>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+        <v>22547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="43">
+        <f>E18</f>
+        <v>44438</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="12" t="s">
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="40" t="s">
-        <v>42</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1369,14 +1434,14 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/reciboALlenar.xlsx
+++ b/reciboALlenar.xlsx
@@ -1,32 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F573DFED-1C51-4F66-8CE1-04A86B364891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="4,5" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="4,5" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'4,5'!$A1:$G44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -150,6 +136,9 @@
     <t>Firma:</t>
   </si>
   <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
     <t>Recibí confrome el importe neto de esta liquidación y una copia de la misma.</t>
   </si>
   <si>
@@ -157,52 +146,49 @@
   </si>
   <si>
     <t>correspondientes al mes anterior.</t>
-  </si>
-  <si>
-    <t>Fecha:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -396,47 +382,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,6 +389,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,7 +403,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,14 +742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="11.42578125" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -775,11 +758,10 @@
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +776,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -806,7 +788,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -817,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -832,7 +814,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -841,7 +823,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -856,7 +838,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -877,7 +859,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -891,206 +873,193 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="16">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="22">
         <v>28052</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="21">
         <f>E10*D10</f>
-        <v>28052</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      </c>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="16">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="21">
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="22">
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="21">
         <f>E11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="18">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26">
         <v>0.15</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="22">
         <f>E10+E11</f>
-        <v>28052</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16">
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
         <f>E12*D12</f>
-        <v>4207.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="19">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27">
+        <v>0.045</v>
+      </c>
+      <c r="E13" s="22">
         <f>E12</f>
-        <v>28052</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16">
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21">
         <f t="shared" ref="G13:G14" si="0">E13*D13</f>
-        <v>1262.3399999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="20">
-        <v>1.25E-3</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="28">
+        <v>0.00125</v>
+      </c>
+      <c r="E14" s="22">
         <f>E13</f>
-        <v>28052</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v>35.064999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32">
         <f>SUM(G12:G14)-G16</f>
-        <v>0.20499999999992724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="22">
         <f>SUM(F10:F15)</f>
-        <v>28052</v>
-      </c>
-      <c r="G16" s="23">
+      </c>
+      <c r="G16" s="34">
         <f>ROUNDDOWN(SUM(G12:G14),0)</f>
-        <v>5505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="36">
         <f>F16-G16</f>
-        <v>22547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="39">
+        <v>44438</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="41" t="s">
         <v>42</v>
-      </c>
-      <c r="E18" s="43">
-        <v>44438</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="str">
+      <c r="G21" s="42"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <f>A1</f>
-        <v>Mafty S.A.</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1101,23 +1070,21 @@
       </c>
       <c r="G23" s="5">
         <f>G1</f>
-        <v>44438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="7">
         <f>E2</f>
-        <v>08/2021</v>
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1128,13 +1095,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1">
         <f>B4</f>
-        <v>0</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>7</v>
@@ -1142,74 +1108,65 @@
       <c r="E26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="F26" s="1">
         <f>F4</f>
-        <v>5.168.143-7</v>
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1">
         <f>B5</f>
-        <v>0</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="8">
         <f>G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1">
         <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="12" t="str">
+      </c>
+      <c r="C28" s="12">
         <f>C6</f>
-        <v>Carpeta Bco. Seguros:</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="1">
         <f>F6</f>
-        <v>77777</v>
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="1">
         <f>B7</f>
-        <v>7777</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1">
         <f>D7</f>
-        <v>6</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="1">
         <f>F7</f>
-        <v>9</v>
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -1223,204 +1180,189 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="15" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="16">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21">
         <v>1</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="22">
         <f>E10</f>
-        <v>28052</v>
-      </c>
-      <c r="F32" s="16">
+      </c>
+      <c r="F32" s="21">
         <f>E32*D32</f>
-        <v>28052</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      </c>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="16">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="21">
         <v>0</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="22">
         <v>0</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="21">
         <f>E33*D33</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      </c>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="18">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26">
         <v>0.15</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="22">
         <f>E32+E33</f>
-        <v>28052</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16">
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21">
         <f>E34*D34</f>
-        <v>4207.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="19">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27">
         <f>D13</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E35" s="17">
+      </c>
+      <c r="E35" s="22">
         <f>E34</f>
-        <v>28052</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16">
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21">
         <f t="shared" ref="G35:G36" si="1">E35*D35</f>
-        <v>1262.3399999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="20">
-        <v>1.25E-3</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="28">
+        <v>0.00125</v>
+      </c>
+      <c r="E36" s="22">
         <f>E35</f>
-        <v>28052</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16">
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21">
         <f t="shared" si="1"/>
-        <v>35.064999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32">
         <f>SUM(G34:G36)-G38</f>
-        <v>0.20499999999992724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="22">
         <f>SUM(F32:F37)</f>
-        <v>28052</v>
-      </c>
-      <c r="G38" s="23">
+      </c>
+      <c r="G38" s="34">
         <f>ROUNDDOWN(SUM(G34:G36),0)</f>
-        <v>5505</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="36">
         <f>F38-G38</f>
-        <v>22547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="39">
+        <f>E18</f>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="41" t="s">
         <v>42</v>
-      </c>
-      <c r="E40" s="43">
-        <f>E18</f>
-        <v>44438</v>
-      </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="29"/>
+      <c r="G43" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1434,14 +1376,14 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/reciboALlenar.xlsx
+++ b/reciboALlenar.xlsx
@@ -429,13 +429,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -746,7 +748,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="11.42578125" customHeight="1"/>
@@ -1008,28 +1010,26 @@
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="37">
         <f>F16-G16</f>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="39">
-        <v>44438</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,26 +1315,26 @@
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="37">
         <f>F38-G38</f>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="12" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="7">
         <f>E18</f>
       </c>
       <c r="G40" s="8"/>
